--- a/Symphony/2021/June/Others/DSR wise draft Sales target -Rajshahi-June'2021.xlsx
+++ b/Symphony/2021/June/Others/DSR wise draft Sales target -Rajshahi-June'2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88017\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\Symphony\2021\June\Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1587,6 +1587,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1626,14 +1634,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2522,7 +2522,7 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3296,97 +3296,97 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:30" s="175" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="172" t="s">
+    <row r="10" spans="1:30" s="162" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="159" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="173" t="s">
+      <c r="B10" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="174">
+      <c r="C10" s="161">
         <f t="shared" si="0"/>
         <v>6775059.4441380957</v>
       </c>
-      <c r="D10" s="174">
+      <c r="D10" s="161">
         <f t="shared" si="1"/>
         <v>4322</v>
       </c>
-      <c r="E10" s="174">
+      <c r="E10" s="161">
         <v>137</v>
       </c>
-      <c r="F10" s="174">
+      <c r="F10" s="161">
         <v>342</v>
       </c>
-      <c r="G10" s="174">
+      <c r="G10" s="161">
         <v>342</v>
       </c>
-      <c r="H10" s="174">
+      <c r="H10" s="161">
         <v>134</v>
       </c>
-      <c r="I10" s="174">
+      <c r="I10" s="161">
         <v>358</v>
       </c>
-      <c r="J10" s="174">
+      <c r="J10" s="161">
         <v>121</v>
       </c>
-      <c r="K10" s="174">
+      <c r="K10" s="161">
         <v>360</v>
       </c>
-      <c r="L10" s="174">
+      <c r="L10" s="161">
         <v>288</v>
       </c>
-      <c r="M10" s="174">
+      <c r="M10" s="161">
         <v>284</v>
       </c>
-      <c r="N10" s="174">
+      <c r="N10" s="161">
         <v>288</v>
       </c>
-      <c r="O10" s="174">
+      <c r="O10" s="161">
         <v>203</v>
       </c>
-      <c r="P10" s="174">
+      <c r="P10" s="161">
         <v>243</v>
       </c>
-      <c r="Q10" s="174">
+      <c r="Q10" s="161">
         <v>264</v>
       </c>
-      <c r="R10" s="174">
+      <c r="R10" s="161">
         <v>317</v>
       </c>
-      <c r="S10" s="174">
+      <c r="S10" s="161">
         <v>138</v>
       </c>
-      <c r="T10" s="174">
+      <c r="T10" s="161">
         <v>111</v>
       </c>
-      <c r="U10" s="174">
+      <c r="U10" s="161">
         <v>111</v>
       </c>
-      <c r="V10" s="174">
+      <c r="V10" s="161">
         <v>33</v>
       </c>
-      <c r="W10" s="174">
+      <c r="W10" s="161">
         <v>60</v>
       </c>
-      <c r="X10" s="174">
+      <c r="X10" s="161">
         <v>54</v>
       </c>
-      <c r="Y10" s="174">
+      <c r="Y10" s="161">
         <v>54</v>
       </c>
-      <c r="Z10" s="174">
+      <c r="Z10" s="161">
         <v>11</v>
       </c>
-      <c r="AA10" s="174">
+      <c r="AA10" s="161">
         <v>19</v>
       </c>
-      <c r="AB10" s="174">
+      <c r="AB10" s="161">
         <v>19</v>
       </c>
-      <c r="AC10" s="174">
+      <c r="AC10" s="161">
         <v>24</v>
       </c>
-      <c r="AD10" s="174">
+      <c r="AD10" s="161">
         <v>7</v>
       </c>
     </row>
@@ -3672,285 +3672,285 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="175" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="172" t="s">
+    <row r="14" spans="1:30" s="162" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="173" t="s">
+      <c r="B14" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="174">
+      <c r="C14" s="161">
         <f t="shared" si="0"/>
         <v>17471102.694633331</v>
       </c>
-      <c r="D14" s="174">
+      <c r="D14" s="161">
         <f t="shared" si="1"/>
         <v>10054</v>
       </c>
-      <c r="E14" s="174">
+      <c r="E14" s="161">
         <v>292</v>
       </c>
-      <c r="F14" s="174">
+      <c r="F14" s="161">
         <v>731</v>
       </c>
-      <c r="G14" s="174">
+      <c r="G14" s="161">
         <v>731</v>
       </c>
-      <c r="H14" s="174">
+      <c r="H14" s="161">
         <v>454</v>
       </c>
-      <c r="I14" s="174">
+      <c r="I14" s="161">
         <v>1210</v>
       </c>
-      <c r="J14" s="174">
+      <c r="J14" s="161">
         <v>236</v>
       </c>
-      <c r="K14" s="174">
+      <c r="K14" s="161">
         <v>700</v>
       </c>
-      <c r="L14" s="174">
+      <c r="L14" s="161">
         <v>561</v>
       </c>
-      <c r="M14" s="174">
+      <c r="M14" s="161">
         <v>533</v>
       </c>
-      <c r="N14" s="174">
+      <c r="N14" s="161">
         <v>561</v>
       </c>
-      <c r="O14" s="174">
+      <c r="O14" s="161">
         <v>381</v>
       </c>
-      <c r="P14" s="174">
+      <c r="P14" s="161">
         <v>458</v>
       </c>
-      <c r="Q14" s="174">
+      <c r="Q14" s="161">
         <v>662</v>
       </c>
-      <c r="R14" s="174">
+      <c r="R14" s="161">
         <v>794</v>
       </c>
-      <c r="S14" s="174">
+      <c r="S14" s="161">
         <v>327</v>
       </c>
-      <c r="T14" s="174">
+      <c r="T14" s="161">
         <v>261</v>
       </c>
-      <c r="U14" s="174">
+      <c r="U14" s="161">
         <v>243</v>
       </c>
-      <c r="V14" s="174">
+      <c r="V14" s="161">
         <v>108</v>
       </c>
-      <c r="W14" s="174">
+      <c r="W14" s="161">
         <v>198</v>
       </c>
-      <c r="X14" s="174">
+      <c r="X14" s="161">
         <v>179</v>
       </c>
-      <c r="Y14" s="174">
+      <c r="Y14" s="161">
         <v>179</v>
       </c>
-      <c r="Z14" s="174">
+      <c r="Z14" s="161">
         <v>36</v>
       </c>
-      <c r="AA14" s="174">
+      <c r="AA14" s="161">
         <v>63</v>
       </c>
-      <c r="AB14" s="174">
+      <c r="AB14" s="161">
         <v>63</v>
       </c>
-      <c r="AC14" s="174">
+      <c r="AC14" s="161">
         <v>72</v>
       </c>
-      <c r="AD14" s="174">
+      <c r="AD14" s="161">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="175" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="172" t="s">
+    <row r="15" spans="1:30" s="162" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="173" t="s">
+      <c r="B15" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="174">
+      <c r="C15" s="161">
         <f t="shared" si="0"/>
         <v>9805114.750628572</v>
       </c>
-      <c r="D15" s="174">
+      <c r="D15" s="161">
         <f t="shared" si="1"/>
         <v>5682</v>
       </c>
-      <c r="E15" s="174">
+      <c r="E15" s="161">
         <v>224</v>
       </c>
-      <c r="F15" s="174">
+      <c r="F15" s="161">
         <v>558</v>
       </c>
-      <c r="G15" s="174">
+      <c r="G15" s="161">
         <v>558</v>
       </c>
-      <c r="H15" s="174">
+      <c r="H15" s="161">
         <v>150</v>
       </c>
-      <c r="I15" s="174">
+      <c r="I15" s="161">
         <v>401</v>
       </c>
-      <c r="J15" s="174">
+      <c r="J15" s="161">
         <v>150</v>
       </c>
-      <c r="K15" s="174">
+      <c r="K15" s="161">
         <v>444</v>
       </c>
-      <c r="L15" s="174">
+      <c r="L15" s="161">
         <v>354</v>
       </c>
-      <c r="M15" s="174">
+      <c r="M15" s="161">
         <v>378</v>
       </c>
-      <c r="N15" s="174">
+      <c r="N15" s="161">
         <v>354</v>
       </c>
-      <c r="O15" s="174">
+      <c r="O15" s="161">
         <v>270</v>
       </c>
-      <c r="P15" s="174">
+      <c r="P15" s="161">
         <v>324</v>
       </c>
-      <c r="Q15" s="174">
+      <c r="Q15" s="161">
         <v>270</v>
       </c>
-      <c r="R15" s="174">
+      <c r="R15" s="161">
         <v>324</v>
       </c>
-      <c r="S15" s="174">
+      <c r="S15" s="161">
         <v>147</v>
       </c>
-      <c r="T15" s="174">
+      <c r="T15" s="161">
         <v>118</v>
       </c>
-      <c r="U15" s="174">
+      <c r="U15" s="161">
         <v>148</v>
       </c>
-      <c r="V15" s="174">
+      <c r="V15" s="161">
         <v>57</v>
       </c>
-      <c r="W15" s="174">
+      <c r="W15" s="161">
         <v>104</v>
       </c>
-      <c r="X15" s="174">
+      <c r="X15" s="161">
         <v>94</v>
       </c>
-      <c r="Y15" s="174">
+      <c r="Y15" s="161">
         <v>94</v>
       </c>
-      <c r="Z15" s="174">
+      <c r="Z15" s="161">
         <v>19</v>
       </c>
-      <c r="AA15" s="174">
+      <c r="AA15" s="161">
         <v>33</v>
       </c>
-      <c r="AB15" s="174">
+      <c r="AB15" s="161">
         <v>33</v>
       </c>
-      <c r="AC15" s="174">
+      <c r="AC15" s="161">
         <v>59</v>
       </c>
-      <c r="AD15" s="174">
+      <c r="AD15" s="161">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="175" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="172" t="s">
+    <row r="16" spans="1:30" s="162" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="159" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="173" t="s">
+      <c r="B16" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="161">
         <f t="shared" si="0"/>
         <v>9816577.7024952378</v>
       </c>
-      <c r="D16" s="174">
+      <c r="D16" s="161">
         <f t="shared" si="1"/>
         <v>6369</v>
       </c>
-      <c r="E16" s="174">
+      <c r="E16" s="161">
         <v>213</v>
       </c>
-      <c r="F16" s="174">
+      <c r="F16" s="161">
         <v>532</v>
       </c>
-      <c r="G16" s="174">
+      <c r="G16" s="161">
         <v>532</v>
       </c>
-      <c r="H16" s="174">
+      <c r="H16" s="161">
         <v>229</v>
       </c>
-      <c r="I16" s="174">
+      <c r="I16" s="161">
         <v>610</v>
       </c>
-      <c r="J16" s="174">
+      <c r="J16" s="161">
         <v>159</v>
       </c>
-      <c r="K16" s="174">
+      <c r="K16" s="161">
         <v>471</v>
       </c>
-      <c r="L16" s="174">
+      <c r="L16" s="161">
         <v>378</v>
       </c>
-      <c r="M16" s="174">
+      <c r="M16" s="161">
         <v>368</v>
       </c>
-      <c r="N16" s="174">
+      <c r="N16" s="161">
         <v>378</v>
       </c>
-      <c r="O16" s="174">
+      <c r="O16" s="161">
         <v>264</v>
       </c>
-      <c r="P16" s="174">
+      <c r="P16" s="161">
         <v>317</v>
       </c>
-      <c r="Q16" s="174">
+      <c r="Q16" s="161">
         <v>413</v>
       </c>
-      <c r="R16" s="174">
+      <c r="R16" s="161">
         <v>495</v>
       </c>
-      <c r="S16" s="174">
+      <c r="S16" s="161">
         <v>246</v>
       </c>
-      <c r="T16" s="174">
+      <c r="T16" s="161">
         <v>197</v>
       </c>
-      <c r="U16" s="174">
+      <c r="U16" s="161">
         <v>176</v>
       </c>
-      <c r="V16" s="174">
+      <c r="V16" s="161">
         <v>46</v>
       </c>
-      <c r="W16" s="174">
+      <c r="W16" s="161">
         <v>83</v>
       </c>
-      <c r="X16" s="174">
+      <c r="X16" s="161">
         <v>75</v>
       </c>
-      <c r="Y16" s="174">
+      <c r="Y16" s="161">
         <v>75</v>
       </c>
-      <c r="Z16" s="174">
+      <c r="Z16" s="161">
         <v>15</v>
       </c>
-      <c r="AA16" s="174">
+      <c r="AA16" s="161">
         <v>26</v>
       </c>
-      <c r="AB16" s="174">
+      <c r="AB16" s="161">
         <v>26</v>
       </c>
-      <c r="AC16" s="174">
+      <c r="AC16" s="161">
         <v>34</v>
       </c>
-      <c r="AD16" s="174">
+      <c r="AD16" s="161">
         <v>11</v>
       </c>
     </row>
@@ -4519,10 +4519,10 @@
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A23" s="159" t="s">
+      <c r="A23" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="159"/>
+      <c r="B23" s="163"/>
       <c r="C23" s="13">
         <f>SUM(C4:C22)</f>
         <v>190242144.47761428</v>
@@ -6660,10 +6660,10 @@
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A23" s="159" t="s">
+      <c r="A23" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="159"/>
+      <c r="B23" s="163"/>
       <c r="C23" s="13">
         <f>SUM(C4:C22)</f>
         <v>195172660</v>
@@ -6831,25 +6831,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="165" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="163" t="s">
+      <c r="B1" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="163" t="s">
+      <c r="C1" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="163" t="s">
+      <c r="D1" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="165" t="s">
+      <c r="E1" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="160" t="s">
+      <c r="F1" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="160" t="s">
+      <c r="G1" s="164" t="s">
         <v>33</v>
       </c>
       <c r="H1" s="147">
@@ -6932,13 +6932,13 @@
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A2" s="162"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
       <c r="H2" s="148" t="s">
         <v>229</v>
       </c>
@@ -21754,25 +21754,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="165" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="163" t="s">
+      <c r="B1" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="163" t="s">
+      <c r="C1" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="163" t="s">
+      <c r="D1" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="165" t="s">
+      <c r="E1" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="160" t="s">
+      <c r="F1" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="160" t="s">
+      <c r="G1" s="164" t="s">
         <v>33</v>
       </c>
       <c r="H1" s="147">
@@ -21855,13 +21855,13 @@
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A2" s="162"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
       <c r="H2" s="148" t="s">
         <v>229</v>
       </c>
@@ -36676,25 +36676,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="173" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="169" t="s">
+      <c r="C1" s="173" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="169" t="s">
+      <c r="D1" s="173" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="171" t="s">
+      <c r="E1" s="175" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="166" t="s">
+      <c r="F1" s="170" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="166" t="s">
+      <c r="G1" s="170" t="s">
         <v>33</v>
       </c>
       <c r="H1" s="66">
@@ -36777,13 +36777,13 @@
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A2" s="168"/>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
+      <c r="A2" s="172"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
       <c r="H2" s="68" t="s">
         <v>229</v>
       </c>
